--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean-Baptiste\Desktop\TX\robustprosthetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82FC0C-ABA7-403C-8F0C-3A2B56FBD048}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E8448-F372-4BC2-86DE-BF85A5365E27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{73932C5B-B375-4AA1-9063-808C99B923FC}"/>
+    <workbookView xWindow="696" yWindow="672" windowWidth="11508" windowHeight="6480" xr2:uid="{73932C5B-B375-4AA1-9063-808C99B923FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,36 @@
   </si>
   <si>
     <t>Result (50 000 steps)</t>
+  </si>
+  <si>
+    <t>en cours  …</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>a refaire</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>us-east1-b</t>
+  </si>
+  <si>
+    <t>us-west1-b</t>
+  </si>
+  <si>
+    <t>us-central1-a</t>
+  </si>
+  <si>
+    <t>europe-west1-b</t>
+  </si>
+  <si>
+    <t>us-west2-a</t>
+  </si>
+  <si>
+    <t>Instance</t>
   </si>
 </sst>
 </file>
@@ -403,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42295FF-32D7-49EC-A809-951D9DF64778}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -418,9 +448,10 @@
     <col min="5" max="5" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.62890625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +473,17 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -462,8 +502,20 @@
       <c r="F2">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2">
+        <v>-2.6</v>
+      </c>
+      <c r="H2">
+        <v>50799</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -482,8 +534,20 @@
       <c r="F3">
         <v>256</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3">
+        <v>-1.7</v>
+      </c>
+      <c r="H3">
+        <v>29443</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,8 +566,17 @@
       <c r="F4">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -522,8 +595,20 @@
       <c r="F5">
         <v>256</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5">
+        <v>-1.8</v>
+      </c>
+      <c r="H5">
+        <v>74000</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -542,8 +627,20 @@
       <c r="F6">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>30927</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -562,8 +659,11 @@
       <c r="F7">
         <v>256</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -582,8 +682,20 @@
       <c r="F8">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8">
+        <v>-2.5</v>
+      </c>
+      <c r="H8">
+        <v>75166</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -602,8 +714,20 @@
       <c r="F9">
         <v>256</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9">
+        <v>-2.6</v>
+      </c>
+      <c r="H9">
+        <v>23386</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -622,8 +746,17 @@
       <c r="F10">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10">
+        <v>-1.2</v>
+      </c>
+      <c r="H10">
+        <v>16133</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -642,8 +775,17 @@
       <c r="F11">
         <v>256</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11">
+        <v>-1.8</v>
+      </c>
+      <c r="H11">
+        <v>27948</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -662,8 +804,14 @@
       <c r="F12">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -680,246 +828,6 @@
         <v>100000</v>
       </c>
       <c r="F13">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>128</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0.9</v>
-      </c>
-      <c r="E14">
-        <v>10000</v>
-      </c>
-      <c r="F14">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>128</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0.9</v>
-      </c>
-      <c r="E15">
-        <v>10000</v>
-      </c>
-      <c r="F15">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>128</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0.9</v>
-      </c>
-      <c r="E16">
-        <v>100000</v>
-      </c>
-      <c r="F16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>128</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.9</v>
-      </c>
-      <c r="E17">
-        <v>100000</v>
-      </c>
-      <c r="F17">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>128</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>0.9</v>
-      </c>
-      <c r="E18">
-        <v>10000</v>
-      </c>
-      <c r="F18">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>128</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>0.9</v>
-      </c>
-      <c r="E19">
-        <v>10000</v>
-      </c>
-      <c r="F19">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>128</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>0.9</v>
-      </c>
-      <c r="E20">
-        <v>100000</v>
-      </c>
-      <c r="F20">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>128</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0.9</v>
-      </c>
-      <c r="E21">
-        <v>100000</v>
-      </c>
-      <c r="F21">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>128</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>0.9</v>
-      </c>
-      <c r="E22">
-        <v>10000</v>
-      </c>
-      <c r="F22">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>128</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>0.9</v>
-      </c>
-      <c r="E23">
-        <v>10000</v>
-      </c>
-      <c r="F23">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>128</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>0.9</v>
-      </c>
-      <c r="E24">
-        <v>100000</v>
-      </c>
-      <c r="F24">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>128</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>0.9</v>
-      </c>
-      <c r="E25">
-        <v>100000</v>
-      </c>
-      <c r="F25">
         <v>256</v>
       </c>
     </row>
